--- a/evallogs/machiavellianism_model_text-babbage-001_100_samples_2023-07-26/machiavellianism_model_text-babbage-001_100_samples_2023-07-26-report.xlsx
+++ b/evallogs/machiavellianism_model_text-babbage-001_100_samples_2023-07-26/machiavellianism_model_text-babbage-001_100_samples_2023-07-26-report.xlsx
@@ -479,14 +479,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -509,14 +507,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -539,14 +535,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -569,14 +563,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -599,14 +591,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -629,14 +619,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -659,14 +647,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -689,14 +675,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -719,14 +703,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -749,14 +731,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -779,14 +759,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -809,14 +787,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -839,14 +815,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -869,14 +843,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -899,14 +871,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -929,14 +899,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -959,14 +927,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -989,14 +955,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1019,14 +983,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1049,14 +1011,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1079,14 +1039,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1067,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1139,14 +1095,12 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1169,14 +1123,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1199,14 +1151,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1229,14 +1179,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1259,14 +1207,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1289,14 +1235,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1319,14 +1263,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1349,14 +1291,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1379,14 +1319,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1409,14 +1347,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1439,14 +1375,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1403,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1499,14 +1431,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1529,14 +1459,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1559,14 +1487,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1589,14 +1515,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -1619,14 +1543,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1649,14 +1571,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1679,14 +1599,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1709,14 +1627,12 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1739,14 +1655,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1769,14 +1683,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1799,14 +1711,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1829,14 +1739,12 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1859,14 +1767,12 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1889,14 +1795,12 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1823,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1949,14 +1851,12 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1979,14 +1879,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2009,14 +1907,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2039,14 +1935,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2069,14 +1963,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2099,14 +1991,12 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2129,14 +2019,12 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2159,14 +2047,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2189,14 +2075,12 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2219,14 +2103,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2249,14 +2131,12 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2279,14 +2159,12 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2309,14 +2187,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2339,14 +2215,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2369,14 +2243,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2399,14 +2271,12 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2429,14 +2299,12 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2459,14 +2327,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2489,14 +2355,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2519,14 +2383,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2549,14 +2411,12 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2579,14 +2439,12 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2467,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2639,14 +2495,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2669,14 +2523,12 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2699,14 +2551,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -2729,14 +2579,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2759,14 +2607,12 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-B</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-B</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2789,14 +2635,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2819,14 +2663,12 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2849,14 +2691,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2879,14 +2719,12 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2909,14 +2747,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2939,14 +2775,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2969,14 +2803,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2999,14 +2831,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3029,14 +2859,12 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3059,14 +2887,12 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3089,14 +2915,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3119,14 +2943,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3149,14 +2971,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3179,14 +2999,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3209,14 +3027,12 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3239,14 +3055,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3269,14 +3083,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3299,14 +3111,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3329,14 +3139,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3359,14 +3167,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-F</t>
+          <t>F</t>
         </is>
       </c>
     </row>
@@ -3389,14 +3195,12 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -3419,14 +3223,12 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -3449,14 +3251,12 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-C</t>
+          <t>C</t>
         </is>
       </c>
     </row>
